--- a/Artifacts/ValidationResults.xlsx
+++ b/Artifacts/ValidationResults.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b021fb3000abb44/GitHub/CovidPred_Repro/Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{93A31E34-9601-4D85-B018-C6301D18DCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{935AC455-1D5A-42F1-A1CF-6E01B176BB4C}"/>
+  <xr:revisionPtr revIDLastSave="554" documentId="8_{93A31E34-9601-4D85-B018-C6301D18DCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFCDC676-A405-4C43-BC25-748759CFC48E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F2D8299E-0562-4DAC-8D5A-D94B36258533}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F2D8299E-0562-4DAC-8D5A-D94B36258533}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Raw" sheetId="1" r:id="rId1"/>
+    <sheet name="Final" sheetId="2" r:id="rId2"/>
+    <sheet name="View 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Time and Space" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
   <si>
     <t>model_name</t>
   </si>
@@ -106,15 +108,8 @@
 (N = 13)</t>
   </si>
   <si>
-    <t>New Covid-19
-(N = 0)</t>
-  </si>
-  <si>
     <t>Non-covid-19
 (N = 3)</t>
-  </si>
-  <si>
-    <t>Combined (batch = 16)</t>
   </si>
   <si>
     <t>Combined (batch = 32)</t>
@@ -133,13 +128,194 @@
   </si>
   <si>
     <t xml:space="preserve">Results of the external validation (N = 43) </t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>N = 156</t>
+  </si>
+  <si>
+    <t>N = 338</t>
+  </si>
+  <si>
+    <t>N = 78</t>
+  </si>
+  <si>
+    <t>N = 416</t>
+  </si>
+  <si>
+    <t>N = 130</t>
+  </si>
+  <si>
+    <t>None 
+(Original Images)</t>
+  </si>
+  <si>
+    <t>Rotate 
+120 degree</t>
+  </si>
+  <si>
+    <t>Rotate
+140 degree</t>
+  </si>
+  <si>
+    <t>Augmentation type</t>
+  </si>
+  <si>
+    <t>batch = 32</t>
+  </si>
+  <si>
+    <t>Combined (Original + all 25 augmentations)</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>N = 9594</t>
+  </si>
+  <si>
+    <t>N = 1066</t>
+  </si>
+  <si>
+    <t>Training Results</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Image count</t>
+  </si>
+  <si>
+    <t>Covid-19</t>
+  </si>
+  <si>
+    <t>Non-covid-19</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Validation
+Accuracy</t>
+  </si>
+  <si>
+    <t>Training Accuracy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">External validation results - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accuracy for each image label</t>
+    </r>
+  </si>
+  <si>
+    <t>Combined - Batch size = 32 against original unseen images</t>
+  </si>
+  <si>
+    <t>Combined - Batch size = 32 against combined unseen images</t>
+  </si>
+  <si>
+    <t>Rotated 120 degee against unseeen 120 degree rotated images</t>
+  </si>
+  <si>
+    <t>Rotated 140 degee against unseeen 140 degree rotated images</t>
+  </si>
+  <si>
+    <t>Ogiginal image against unseeen Original images</t>
+  </si>
+  <si>
+    <t>Rotated 120 degee against unseeen original images</t>
+  </si>
+  <si>
+    <t>Rotated 140 degee against unseeen original images</t>
+  </si>
+  <si>
+    <t>Against unseen original images</t>
+  </si>
+  <si>
+    <t>Against combined unseen images</t>
+  </si>
+  <si>
+    <t>Combined (Original + all 25 augmentations) - batch size 32</t>
+  </si>
+  <si>
+    <t>Model with 120 degree rotated images</t>
+  </si>
+  <si>
+    <t>Model with 140 degree rotated images</t>
+  </si>
+  <si>
+    <t>Model with original images</t>
+  </si>
+  <si>
+    <t>Model with original images and all augmented images</t>
+  </si>
+  <si>
+    <t>Training time</t>
+  </si>
+  <si>
+    <t>Validation time</t>
+  </si>
+  <si>
+    <t>Memory consumption</t>
+  </si>
+  <si>
+    <t>Model size on disk</t>
+  </si>
+  <si>
+    <t>Full dataset</t>
+  </si>
+  <si>
+    <t>Filtered dataset</t>
+  </si>
+  <si>
+    <t>Augmented datasets
+(total size for all 25 datasets)</t>
+  </si>
+  <si>
+    <t>combined dataset (original + all combined)</t>
+  </si>
+  <si>
+    <t>Size on disk</t>
+  </si>
+  <si>
+    <t>Dataset name</t>
+  </si>
+  <si>
+    <t>Filtered dataset to augmented dataset creation.</t>
+  </si>
+  <si>
+    <t>Full dataset to filtered dataset creation.</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>1 hour 13 mins</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +339,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +381,32 @@
         <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -454,11 +670,213 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -501,6 +919,143 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -510,44 +1065,65 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6043DBE-C97E-445B-B566-560366877247}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,9 +1456,18 @@
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -909,464 +1494,1109 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C3" s="6">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E3" s="6">
         <v>50</v>
       </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>16.670000000000002</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I3" s="7">
         <v>33.33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>53.85</v>
-      </c>
-      <c r="G3" s="2">
-        <v>15.38</v>
-      </c>
-      <c r="H3" s="2">
-        <v>23.08</v>
-      </c>
-      <c r="I3" s="9">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>33.33</v>
+        <v>53.85</v>
       </c>
       <c r="G4" s="2">
-        <v>66.67</v>
+        <v>15.38</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>23.08</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="G5" s="2">
+        <v>66.67</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
         <v>6.25</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="2">
         <v>18.75</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H6" s="2">
         <v>75</v>
       </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="11">
         <v>5</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
         <v>20</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I7" s="17">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>0</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
+      <c r="K9" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="69"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>0</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C10" s="6">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E10" s="15">
         <v>100</v>
       </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="55">
+        <v>0</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="56">
+        <v>6</v>
+      </c>
+      <c r="N10" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="62">
+        <v>0</v>
+      </c>
+      <c r="P10" s="56">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="56">
+        <v>0</v>
+      </c>
+      <c r="R10" s="56">
+        <v>0</v>
+      </c>
+      <c r="S10" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>23.08</v>
-      </c>
-      <c r="G9" s="2">
-        <v>76.92</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>100</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>23.08</v>
+      </c>
+      <c r="G11" s="2">
+        <v>76.92</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1">
+        <v>13</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="58">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="58">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>12.5</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H13" s="16">
         <v>87.5</v>
       </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="1">
+        <v>16</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="58">
+        <v>0</v>
+      </c>
+      <c r="S13" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C14" s="11">
         <v>5</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E14" s="11">
         <v>60</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>0</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="K14" s="10">
+        <v>4</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="23">
+        <v>5</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="23">
+        <v>0</v>
+      </c>
+      <c r="P14" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0</v>
+      </c>
+      <c r="R14" s="23">
+        <v>0</v>
+      </c>
+      <c r="S14" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="60"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="61"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="K16" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="69"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C17" s="6">
         <v>6</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E17" s="15">
         <v>100</v>
       </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="55">
+        <v>0</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="56">
+        <v>6</v>
+      </c>
+      <c r="N17" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="62">
+        <v>0</v>
+      </c>
+      <c r="P17" s="56">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="56">
+        <v>0</v>
+      </c>
+      <c r="R17" s="56">
+        <v>0</v>
+      </c>
+      <c r="S17" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C18" s="2">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
         <v>84.62</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G18" s="2">
         <v>15.38</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="1">
+        <v>13</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="58">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
         <v>33.33</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G19" s="2">
         <v>66.67</v>
       </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="N19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="58">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C20" s="2">
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
         <v>6.25</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G20" s="2">
         <v>12.5</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H20" s="2">
         <v>81.25</v>
       </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1">
+        <v>16</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="58">
+        <v>0</v>
+      </c>
+      <c r="S20" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>4</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C21" s="11">
         <v>5</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E21" s="11">
         <v>80</v>
       </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
         <v>20</v>
       </c>
+      <c r="K21" s="10">
+        <v>4</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="23">
+        <v>5</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="23">
+        <v>0</v>
+      </c>
+      <c r="P21" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>0</v>
+      </c>
+      <c r="R21" s="23">
+        <v>0</v>
+      </c>
+      <c r="S21" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="72"/>
+      <c r="K23" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="69"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>0</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="31">
+        <v>156</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="33">
+        <v>94.23</v>
+      </c>
+      <c r="F24" s="31">
+        <v>0</v>
+      </c>
+      <c r="G24" s="31">
+        <v>0</v>
+      </c>
+      <c r="H24" s="31">
+        <v>0.64</v>
+      </c>
+      <c r="I24" s="32">
+        <v>5.13</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="1">
+        <v>6</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="58">
+        <v>100</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1">
+        <v>338</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="34">
+        <v>77.81</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="H25" s="1">
+        <v>13.31</v>
+      </c>
+      <c r="I25" s="22">
+        <v>3.25</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="1">
+        <v>13</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="58">
+        <v>76.92</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>15.38</v>
+      </c>
+      <c r="S25" s="22">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1">
+        <v>78</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>44.87</v>
+      </c>
+      <c r="G26" s="34">
+        <v>29.49</v>
+      </c>
+      <c r="H26" s="1">
+        <v>25.64</v>
+      </c>
+      <c r="I26" s="22">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>33.33</v>
+      </c>
+      <c r="Q26" s="58">
+        <v>33.33</v>
+      </c>
+      <c r="R26" s="1">
+        <v>33.33</v>
+      </c>
+      <c r="S26" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <v>416</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="F27" s="1">
+        <v>15.14</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H27" s="34">
+        <v>83.65</v>
+      </c>
+      <c r="I27" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="K27" s="8">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="1">
+        <v>16</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="58">
+        <v>81.25</v>
+      </c>
+      <c r="S27" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>4</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="23">
+        <v>130</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="23">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="F28" s="23">
+        <v>3.85</v>
+      </c>
+      <c r="G28" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="H28" s="23">
+        <v>2.31</v>
+      </c>
+      <c r="I28" s="35">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="K28" s="10">
+        <v>4</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="23">
+        <v>5</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="23">
+        <v>0</v>
+      </c>
+      <c r="P28" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="23">
+        <v>0</v>
+      </c>
+      <c r="R28" s="23">
+        <v>0</v>
+      </c>
+      <c r="S28" s="59">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A9:I9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1374,10 +2604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1148B58F-4672-42E4-947C-AFC5B9FB4EC5}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,97 +2618,91 @@
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="75"/>
+    </row>
+    <row r="2" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="25">
         <v>100</v>
       </c>
       <c r="C3" s="4">
-        <v>93.8</v>
-      </c>
-      <c r="D3" s="31">
-        <v>377</v>
-      </c>
-      <c r="E3" s="30">
+        <v>56.2</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1.532</v>
+      </c>
+      <c r="E3" s="25">
         <v>50</v>
       </c>
       <c r="F3" s="4">
         <v>53.85</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4">
+        <v>66.67</v>
+      </c>
       <c r="H3" s="4">
-        <v>66.67</v>
-      </c>
-      <c r="I3" s="4">
         <v>75</v>
       </c>
-      <c r="J3" s="31">
+      <c r="I3" s="26">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>100</v>
       </c>
       <c r="C4" s="2">
@@ -1487,28 +2711,27 @@
       <c r="D4" s="9">
         <v>0.59199999999999997</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>100</v>
       </c>
       <c r="F4" s="2">
         <v>84.62</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>66.67</v>
+      </c>
       <c r="H4" s="2">
-        <v>66.67</v>
-      </c>
-      <c r="I4" s="2">
         <v>81.25</v>
       </c>
-      <c r="J4" s="9">
+      <c r="I4" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="18">
         <v>100</v>
       </c>
       <c r="C5" s="2">
@@ -1517,57 +2740,525 @@
       <c r="D5" s="9">
         <v>0.96899999999999997</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>100</v>
       </c>
       <c r="F5" s="2">
         <v>23.08</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
       <c r="H5" s="2">
+        <v>87.5</v>
+      </c>
+      <c r="I5" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="36">
         <v>100</v>
       </c>
-      <c r="I5" s="2">
-        <v>87.5</v>
-      </c>
-      <c r="J5" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
+      <c r="C7" s="11">
+        <v>93.8</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E7" s="11">
+        <v>94.23</v>
+      </c>
+      <c r="F7" s="11">
+        <v>77.81</v>
+      </c>
+      <c r="G7" s="11">
+        <v>29.49</v>
+      </c>
+      <c r="H7" s="11">
+        <v>83.65</v>
+      </c>
+      <c r="I7" s="12">
+        <v>76.150000000000006</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0E8BFA-7981-4B0B-9BD9-25BBA14E87A9}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
+      <c r="J1" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="78"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="81"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="81"/>
+    </row>
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="48">
+        <v>369</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="9">
+        <v>100</v>
+      </c>
+      <c r="F4" s="46">
+        <v>9594</v>
+      </c>
+      <c r="G4" s="9">
+        <v>100</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="48">
+        <v>6</v>
+      </c>
+      <c r="L4" s="2">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2">
+        <v>100</v>
+      </c>
+      <c r="N4" s="9">
+        <v>100</v>
+      </c>
+      <c r="O4" s="46">
+        <v>156</v>
+      </c>
+      <c r="P4" s="2">
+        <v>94.23</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="48">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
+        <v>56.2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>81.2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>62.5</v>
+      </c>
+      <c r="F5" s="46">
+        <v>1066</v>
+      </c>
+      <c r="G5" s="9">
+        <v>93.8</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="48">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2">
+        <v>53.85</v>
+      </c>
+      <c r="M5" s="2">
+        <v>84.62</v>
+      </c>
+      <c r="N5" s="9">
+        <v>23.08</v>
+      </c>
+      <c r="O5" s="46">
+        <v>338</v>
+      </c>
+      <c r="P5" s="2">
+        <v>77.81</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>76.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="11">
+        <v>1.532</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="12">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="48">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>66.67</v>
+      </c>
+      <c r="M6" s="2">
+        <v>66.67</v>
+      </c>
+      <c r="N6" s="9">
+        <v>100</v>
+      </c>
+      <c r="O6" s="46">
+        <v>78</v>
+      </c>
+      <c r="P6" s="2">
+        <v>29.49</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J7" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="48">
+        <v>16</v>
+      </c>
+      <c r="L7" s="2">
+        <v>75</v>
+      </c>
+      <c r="M7" s="2">
+        <v>81.25</v>
+      </c>
+      <c r="N7" s="9">
+        <v>87.5</v>
+      </c>
+      <c r="O7" s="46">
+        <v>416</v>
+      </c>
+      <c r="P7" s="2">
+        <v>83.65</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="49">
+        <v>5</v>
+      </c>
+      <c r="L8" s="11">
+        <v>80</v>
+      </c>
+      <c r="M8" s="11">
+        <v>20</v>
+      </c>
+      <c r="N8" s="12">
+        <v>40</v>
+      </c>
+      <c r="O8" s="50">
+        <v>130</v>
+      </c>
+      <c r="P8" s="11">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D24131-4035-441B-BBEE-D4868AA761F3}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="91" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="91" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="92"/>
+      <c r="B1" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="93" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Artifacts/ValidationResults.xlsx
+++ b/Artifacts/ValidationResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b021fb3000abb44/GitHub/CovidPred_Repro/Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="554" documentId="8_{93A31E34-9601-4D85-B018-C6301D18DCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFCDC676-A405-4C43-BC25-748759CFC48E}"/>
+  <xr:revisionPtr revIDLastSave="725" documentId="8_{93A31E34-9601-4D85-B018-C6301D18DCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50BB638A-11EA-44EF-880B-34D92FE22EEC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F2D8299E-0562-4DAC-8D5A-D94B36258533}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F2D8299E-0562-4DAC-8D5A-D94B36258533}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
   <si>
     <t>model_name</t>
   </si>
@@ -262,18 +262,6 @@
     <t>Model with original images and all augmented images</t>
   </si>
   <si>
-    <t>Training time</t>
-  </si>
-  <si>
-    <t>Validation time</t>
-  </si>
-  <si>
-    <t>Memory consumption</t>
-  </si>
-  <si>
-    <t>Model size on disk</t>
-  </si>
-  <si>
     <t>Full dataset</t>
   </si>
   <si>
@@ -287,9 +275,6 @@
     <t>combined dataset (original + all combined)</t>
   </si>
   <si>
-    <t>Size on disk</t>
-  </si>
-  <si>
     <t>Dataset name</t>
   </si>
   <si>
@@ -308,7 +293,135 @@
     <t>1 hour 13 mins</t>
   </si>
   <si>
-    <t>??</t>
+    <t>13 seconds</t>
+  </si>
+  <si>
+    <t>24 minutes</t>
+  </si>
+  <si>
+    <t>5 hours 52 minutes</t>
+  </si>
+  <si>
+    <t>9 minutes</t>
+  </si>
+  <si>
+    <t>Validation time against original images</t>
+  </si>
+  <si>
+    <t>Validation time against self-augmented data.</t>
+  </si>
+  <si>
+    <t>6 seconds</t>
+  </si>
+  <si>
+    <t>3 minutes 26 seconds</t>
+  </si>
+  <si>
+    <t>8 seconds</t>
+  </si>
+  <si>
+    <t>17 seconds</t>
+  </si>
+  <si>
+    <t>Model size on disk
+(MB)</t>
+  </si>
+  <si>
+    <t>Size on disk
+(GB)</t>
+  </si>
+  <si>
+    <t>7 hour 41 minutes</t>
+  </si>
+  <si>
+    <t>4 minutes 17 seconds</t>
+  </si>
+  <si>
+    <t>26 seconds</t>
+  </si>
+  <si>
+    <t>Grand total</t>
+  </si>
+  <si>
+    <t>7 hours 45 minutes 43 seconds</t>
+  </si>
+  <si>
+    <t>Model training and validation</t>
+  </si>
+  <si>
+    <t>Dataset size</t>
+  </si>
+  <si>
+    <t>Data processing time</t>
+  </si>
+  <si>
+    <t>Total disk space needed</t>
+  </si>
+  <si>
+    <t>Total CPU time</t>
+  </si>
+  <si>
+    <t>Max memory requirement</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>~ 9</t>
+  </si>
+  <si>
+    <t>* Memory consumption
+(GB)</t>
+  </si>
+  <si>
+    <t>* Memory consumption</t>
+  </si>
+  <si>
+    <t>Memory consumption is estimated based on memory consumed by the process while training the model.
+This is based on training one model at a time.</t>
+  </si>
+  <si>
+    <t>** Training time</t>
+  </si>
+  <si>
+    <t>** Training Time</t>
+  </si>
+  <si>
+    <t>Cited training time is based on training one model at a time.
+We noticed that models were taking lot longer to train if they were trained in paralle.</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>GPU?</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Intel(R) Xeon(R) CPU E5-1650 v4 @ 3.60GHz   3.60 GHz</t>
+  </si>
+  <si>
+    <t>32 GB</t>
+  </si>
+  <si>
+    <t>Not used</t>
+  </si>
+  <si>
+    <t>Windows 10 Enterprise</t>
+  </si>
+  <si>
+    <t>Machine config</t>
+  </si>
+  <si>
+    <t># of cores</t>
   </si>
 </sst>
 </file>
@@ -356,7 +469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +518,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -872,11 +991,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1029,6 +1157,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1111,19 +1251,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1495,17 +1654,17 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -1664,28 +1823,28 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66"/>
-      <c r="K9" s="67" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="K9" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="69"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="73"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1979,28 +2138,28 @@
       <c r="I15" s="61"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="66"/>
-      <c r="K16" s="67" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70"/>
+      <c r="K16" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="69"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="73"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -2284,28 +2443,28 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="72"/>
-      <c r="K23" s="67" t="s">
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
+      <c r="K23" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="69"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="73"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -2627,18 +2786,18 @@
       <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -2846,50 +3005,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
-      <c r="J1" s="76" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+      <c r="J1" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="78"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="82"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="79" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="81"/>
+      <c r="G2" s="85"/>
       <c r="J2" s="51"/>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="79" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="81"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
@@ -3143,121 +3302,361 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D24131-4035-441B-BBEE-D4868AA761F3}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="91" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="91" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" style="64" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="H1" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="103"/>
+      <c r="K1" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="104"/>
+      <c r="N1" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="106"/>
+    </row>
+    <row r="2" spans="1:15" s="95" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="96">
+        <v>389</v>
+      </c>
+      <c r="C3" s="96">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="96">
+        <v>389</v>
+      </c>
+      <c r="C4" s="96">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="96">
+        <v>389</v>
+      </c>
+      <c r="C5" s="96">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="66"/>
+      <c r="H5" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="L5" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="96">
+        <v>389</v>
+      </c>
+      <c r="C6" s="96">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="93" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="J3" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="2"/>
+      <c r="I6" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="N6" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="41">
+        <f>SUM(B3:B6)</f>
+        <v>1556</v>
+      </c>
+      <c r="C7" s="41">
+        <f>SUM(C3:C6)</f>
+        <v>14</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="100">
+        <f>SUM(I3:I6)</f>
+        <v>118.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="102"/>
+      <c r="E9" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="67">
+        <f>B7/1024+I7</f>
+        <v>120.16953125000001</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="67">
+        <v>8</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="105"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="105"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="105"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A16:C18"/>
+    <mergeCell ref="A21:C24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Artifacts/ValidationResults.xlsx
+++ b/Artifacts/ValidationResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b021fb3000abb44/GitHub/CovidPred_Repro/Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="725" documentId="8_{93A31E34-9601-4D85-B018-C6301D18DCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50BB638A-11EA-44EF-880B-34D92FE22EEC}"/>
+  <xr:revisionPtr revIDLastSave="878" documentId="8_{93A31E34-9601-4D85-B018-C6301D18DCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD7EFAB3-6807-4B48-862B-E28FF82507C5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F2D8299E-0562-4DAC-8D5A-D94B36258533}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name="Final" sheetId="2" r:id="rId2"/>
     <sheet name="View 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Time and Space" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Time and Space" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="130">
   <si>
     <t>model_name</t>
   </si>
@@ -203,23 +204,6 @@
     <t>Training Accuracy</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">External validation results - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>accuracy for each image label</t>
-    </r>
-  </si>
-  <si>
     <t>Combined - Batch size = 32 against original unseen images</t>
   </si>
   <si>
@@ -302,9 +286,6 @@
     <t>5 hours 52 minutes</t>
   </si>
   <si>
-    <t>9 minutes</t>
-  </si>
-  <si>
     <t>Validation time against original images</t>
   </si>
   <si>
@@ -343,9 +324,6 @@
     <t>Grand total</t>
   </si>
   <si>
-    <t>7 hours 45 minutes 43 seconds</t>
-  </si>
-  <si>
     <t>Model training and validation</t>
   </si>
   <si>
@@ -359,9 +337,6 @@
   </si>
   <si>
     <t>Total CPU time</t>
-  </si>
-  <si>
-    <t>Max memory requirement</t>
   </si>
   <si>
     <t>GB</t>
@@ -422,13 +397,69 @@
   </si>
   <si>
     <t># of cores</t>
+  </si>
+  <si>
+    <t>Image count in test dataset</t>
+  </si>
+  <si>
+    <t>Max memory requirement exclusively for the CPU process running the code.</t>
+  </si>
+  <si>
+    <t>Suggested minimum machine memory (including OS and other processes) to run this experiment.</t>
+  </si>
+  <si>
+    <t>Memory consumption
+(GB)</t>
+  </si>
+  <si>
+    <t>Average training time per epoch (24 epochs)</t>
+  </si>
+  <si>
+    <t>1 minute</t>
+  </si>
+  <si>
+    <t>7 hour 56 minutes</t>
+  </si>
+  <si>
+    <t>8 hours 43 seconds</t>
+  </si>
+  <si>
+    <t>2 minute</t>
+  </si>
+  <si>
+    <t>3 minute</t>
+  </si>
+  <si>
+    <t>15 minutes</t>
+  </si>
+  <si>
+    <t>External validation results
+Each cell represents proportion on Labels correctly classified by the model.
+i.e. True positive rate.</t>
+  </si>
+  <si>
+    <t>Original Images</t>
+  </si>
+  <si>
+    <t>Comparing performance of model trained with original images with model trained with augmented images.</t>
+  </si>
+  <si>
+    <t>Comparing performance of model trained with original images with model trained with all images combined (original + 25 augmented).</t>
+  </si>
+  <si>
+    <t>Augmentation
+(tested against augmented test dataset)</t>
+  </si>
+  <si>
+    <t>Combined
+(Tested against unseed original dataset)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,15 +484,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -525,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1000,11 +1022,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1169,6 +1217,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1241,48 +1317,72 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,7 +1701,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,17 +1754,17 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
+      <c r="A2" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -1821,30 +1921,45 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
-      <c r="K9" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="73"/>
+      <c r="A9" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
+      <c r="K9" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="83"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -2138,28 +2253,28 @@
       <c r="I15" s="61"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70"/>
-      <c r="K16" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="73"/>
+      <c r="A16" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="80"/>
+      <c r="K16" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="83"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -2443,28 +2558,28 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76"/>
-      <c r="K23" s="71" t="s">
+      <c r="A23" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="73"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="86"/>
+      <c r="K23" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="83"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -2786,18 +2901,18 @@
       <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="77" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
     </row>
     <row r="2" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -2984,7 +3099,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,51 +3119,51 @@
     <col min="17" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:17" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="94"/>
-      <c r="J1" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="82"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
+      <c r="J1" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="92"/>
+    </row>
+    <row r="2" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="83" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="85"/>
+      <c r="G2" s="95"/>
       <c r="J2" s="51"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
@@ -3076,7 +3191,7 @@
         <v>43</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="L3" s="41" t="s">
         <v>33</v>
@@ -3091,10 +3206,10 @@
         <v>44</v>
       </c>
       <c r="P3" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -3301,11 +3416,205 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D24131-4035-441B-BBEE-D4868AA761F3}">
-  <dimension ref="A1:O24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF01A-9452-42BB-A9FE-93648F6F0B06}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92"/>
+      <c r="F1" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="116"/>
+      <c r="H1" s="117"/>
+    </row>
+    <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="110"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="119"/>
+      <c r="F2" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="120" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="112">
+        <v>50</v>
+      </c>
+      <c r="H3" s="121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="112">
+        <v>50</v>
+      </c>
+      <c r="C4" s="18">
+        <v>100</v>
+      </c>
+      <c r="D4" s="9">
+        <v>100</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="112">
+        <v>53.85</v>
+      </c>
+      <c r="H4" s="121">
+        <v>76.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="112">
+        <v>53.85</v>
+      </c>
+      <c r="C5" s="18">
+        <v>84.62</v>
+      </c>
+      <c r="D5" s="9">
+        <v>23.08</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="112">
+        <v>66.67</v>
+      </c>
+      <c r="H5" s="121">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="112">
+        <v>66.67</v>
+      </c>
+      <c r="C6" s="18">
+        <v>66.67</v>
+      </c>
+      <c r="D6" s="9">
+        <v>100</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="112">
+        <v>75</v>
+      </c>
+      <c r="H6" s="121">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="112">
+        <v>75</v>
+      </c>
+      <c r="C7" s="18">
+        <v>81.25</v>
+      </c>
+      <c r="D7" s="9">
+        <v>87.5</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="113">
+        <v>80</v>
+      </c>
+      <c r="H7" s="122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="113">
+        <v>80</v>
+      </c>
+      <c r="C8" s="36">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D24131-4035-441B-BBEE-D4868AA761F3}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3325,97 +3634,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="H1" s="103" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="103"/>
-      <c r="K1" s="104" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="104"/>
-      <c r="N1" s="106" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="106"/>
-    </row>
-    <row r="2" spans="1:15" s="95" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="H1" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="105"/>
+      <c r="K1" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="103"/>
+      <c r="N1" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="104"/>
+    </row>
+    <row r="2" spans="1:15" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I2" s="65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K2" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N2" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="67" t="s">
         <v>107</v>
-      </c>
-      <c r="O2" s="67" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="96">
+        <v>60</v>
+      </c>
+      <c r="B3" s="69">
         <v>389</v>
       </c>
-      <c r="C3" s="96">
+      <c r="C3" s="69">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2">
         <v>43.2</v>
       </c>
       <c r="K3" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="101" t="s">
-        <v>116</v>
+        <v>74</v>
+      </c>
+      <c r="N3" s="74" t="s">
+        <v>112</v>
       </c>
       <c r="O3" s="2">
         <v>6</v>
@@ -3423,110 +3732,110 @@
     </row>
     <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="96">
+        <v>61</v>
+      </c>
+      <c r="B4" s="69">
         <v>389</v>
       </c>
-      <c r="C4" s="96">
+      <c r="C4" s="69">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G4" s="66"/>
       <c r="H4" s="67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2">
         <v>0.65</v>
       </c>
       <c r="K4" s="67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="96">
+        <v>62</v>
+      </c>
+      <c r="B5" s="69">
         <v>389</v>
       </c>
-      <c r="C5" s="96">
+      <c r="C5" s="69">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="66"/>
       <c r="H5" s="67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2">
         <v>37.4</v>
       </c>
-      <c r="L5" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="101" t="s">
+      <c r="L5" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="96">
+        <v>63</v>
+      </c>
+      <c r="B6" s="69">
         <v>389</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C6" s="69">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" s="66"/>
       <c r="H6" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6" s="2">
         <v>37.4</v>
       </c>
-      <c r="N6" s="101" t="s">
+      <c r="N6" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3538,124 +3847,241 @@
         <f>SUM(C3:C6)</f>
         <v>14</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="100">
+      <c r="I7" s="73">
         <f>SUM(I3:I6)</f>
         <v>118.65</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="102"/>
-      <c r="E9" s="99" t="s">
-        <v>90</v>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="75"/>
+      <c r="E9" s="72" t="s">
+        <v>88</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="67">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+    </row>
+    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="69">
+        <v>389</v>
+      </c>
+      <c r="C14" s="69">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="69">
+        <v>389</v>
+      </c>
+      <c r="C15" s="69">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="69">
+        <v>389</v>
+      </c>
+      <c r="C16" s="69">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="69">
+        <v>389</v>
+      </c>
+      <c r="C17" s="69">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="76">
+        <f>SUM(B14:B17)</f>
+        <v>1556</v>
+      </c>
+      <c r="C18" s="76">
+        <f>SUM(C14:C17)</f>
+        <v>14</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="67">
         <f>B7/1024+I7</f>
         <v>120.16953125000001</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C21" s="67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="67">
+        <v>8</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="67">
+        <v>32</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="71" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="67" t="s">
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="102" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="67">
-        <v>8</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="98" t="s">
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="105"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="105"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="98" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="102"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="102"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A32:C35"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A16:C18"/>
-    <mergeCell ref="A21:C24"/>
+    <mergeCell ref="A27:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Artifacts/ValidationResults.xlsx
+++ b/Artifacts/ValidationResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b021fb3000abb44/GitHub/CovidPred_Repro/Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="878" documentId="8_{93A31E34-9601-4D85-B018-C6301D18DCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD7EFAB3-6807-4B48-862B-E28FF82507C5}"/>
+  <xr:revisionPtr revIDLastSave="879" documentId="8_{93A31E34-9601-4D85-B018-C6301D18DCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F0791C5-8246-4998-ABBE-193959DFA860}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F2D8299E-0562-4DAC-8D5A-D94B36258533}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F2D8299E-0562-4DAC-8D5A-D94B36258533}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -1245,102 +1245,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1354,21 +1258,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1383,6 +1272,117 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1754,17 +1754,17 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -1938,28 +1938,28 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
-      <c r="K9" s="81" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="K9" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="83"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="93"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -2253,28 +2253,28 @@
       <c r="I15" s="61"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="80"/>
-      <c r="K16" s="81" t="s">
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="90"/>
+      <c r="K16" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="83"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="93"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -2558,28 +2558,28 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="86"/>
-      <c r="K23" s="81" t="s">
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="96"/>
+      <c r="K23" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="83"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="93"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -2901,18 +2901,18 @@
       <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="87" t="s">
+      <c r="C1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -3120,50 +3120,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="108"/>
-      <c r="J1" s="90" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="114"/>
+      <c r="J1" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="92"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="102"/>
     </row>
     <row r="2" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="93" t="s">
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="105"/>
       <c r="J2" s="51"/>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="93" t="s">
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="95"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
@@ -3419,7 +3419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF01A-9452-42BB-A9FE-93648F6F0B06}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3435,32 +3435,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="F1" s="115" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="F1" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="117"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="120"/>
     </row>
     <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="118" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="119"/>
+      <c r="D2" s="116"/>
       <c r="F2" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="83" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3468,10 +3468,10 @@
       <c r="A3" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="82" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="45" t="s">
@@ -3480,10 +3480,10 @@
       <c r="F3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="112">
+      <c r="G3" s="80">
         <v>50</v>
       </c>
-      <c r="H3" s="121">
+      <c r="H3" s="84">
         <v>100</v>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="112">
+      <c r="B4" s="80">
         <v>50</v>
       </c>
       <c r="C4" s="18">
@@ -3503,10 +3503,10 @@
       <c r="F4" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="112">
+      <c r="G4" s="80">
         <v>53.85</v>
       </c>
-      <c r="H4" s="121">
+      <c r="H4" s="84">
         <v>76.92</v>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       <c r="A5" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="112">
+      <c r="B5" s="80">
         <v>53.85</v>
       </c>
       <c r="C5" s="18">
@@ -3526,10 +3526,10 @@
       <c r="F5" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="112">
+      <c r="G5" s="80">
         <v>66.67</v>
       </c>
-      <c r="H5" s="121">
+      <c r="H5" s="84">
         <v>33.33</v>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       <c r="A6" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="112">
+      <c r="B6" s="80">
         <v>66.67</v>
       </c>
       <c r="C6" s="18">
@@ -3549,10 +3549,10 @@
       <c r="F6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="112">
+      <c r="G6" s="80">
         <v>75</v>
       </c>
-      <c r="H6" s="121">
+      <c r="H6" s="84">
         <v>81.25</v>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       <c r="A7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="80">
         <v>75</v>
       </c>
       <c r="C7" s="18">
@@ -3572,10 +3572,10 @@
       <c r="F7" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="113">
+      <c r="G7" s="81">
         <v>80</v>
       </c>
-      <c r="H7" s="122">
+      <c r="H7" s="85">
         <v>100</v>
       </c>
     </row>
@@ -3583,7 +3583,7 @@
       <c r="A8" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="113">
+      <c r="B8" s="81">
         <v>80</v>
       </c>
       <c r="C8" s="36">
@@ -3613,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D24131-4035-441B-BBEE-D4868AA761F3}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,26 +3634,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="H1" s="105" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="H1" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="105"/>
-      <c r="K1" s="103" t="s">
+      <c r="I1" s="124"/>
+      <c r="K1" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="103"/>
-      <c r="N1" s="104" t="s">
+      <c r="L1" s="122"/>
+      <c r="N1" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="104"/>
+      <c r="O1" s="123"/>
     </row>
     <row r="2" spans="1:15" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -3871,13 +3871,13 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
     </row>
     <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
@@ -4028,21 +4028,21 @@
       <c r="C26" s="70"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="102"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="102"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="102"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="71" t="s">
@@ -4052,26 +4052,26 @@
       <c r="C31" s="70"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="102"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="102"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="7">
